--- a/src/main/resources/excel/monster/monster.xlsx
+++ b/src/main/resources/excel/monster/monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D9BC0-90D7-47BC-A9FC-BCE2F95B73CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F66DB5-BE13-4679-8BE5-65E022177D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5328" yWindow="1788" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>0</v>

--- a/src/main/resources/excel/monster/monster.xlsx
+++ b/src/main/resources/excel/monster/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F66DB5-BE13-4679-8BE5-65E022177D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473DFD0A-AEB2-41BE-93EC-52C2567D815F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2244" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackDistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,22 +412,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -430,19 +441,51 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>200</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/monster/monster.xlsx
+++ b/src/main/resources/excel/monster/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473DFD0A-AEB2-41BE-93EC-52C2567D815F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE43DEA1-1157-47A1-8581-70E44AFF7F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2244" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8472" yWindow="2256" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>史莱姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -426,11 +422,8 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -455,16 +448,13 @@
       <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -483,9 +473,6 @@
       </c>
       <c r="H3">
         <v>40</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/monster/monster.xlsx
+++ b/src/main/resources/excel/monster/monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE43DEA1-1157-47A1-8581-70E44AFF7F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75BFA61-D0E4-42B7-9717-A1B062DC10DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8472" yWindow="2256" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="3084" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>attackDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +426,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -448,8 +455,11 @@
       <c r="H2">
         <v>20</v>
       </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -473,6 +483,9 @@
       </c>
       <c r="H3">
         <v>40</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/monster/monster.xlsx
+++ b/src/main/resources/excel/monster/monster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75BFA61-D0E4-42B7-9717-A1B062DC10DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0ED93C-C3E9-4552-8498-077733B6F65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="3084" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8928" yWindow="264" windowWidth="16560" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +433,11 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -458,8 +465,11 @@
       <c r="I2">
         <v>10</v>
       </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -486,6 +496,9 @@
       </c>
       <c r="I3">
         <v>20</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/monster/monster.xlsx
+++ b/src/main/resources/excel/monster/monster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyGame\src\main\resources\excel\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0ED93C-C3E9-4552-8498-077733B6F65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2877788D-CBED-4C1D-80C7-31F7EDB3EF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8928" yWindow="264" windowWidth="16560" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8976" yWindow="3396" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰哥布林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -501,6 +505,38 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/monster/monster.xlsx
+++ b/src/main/resources/excel/monster/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2877788D-CBED-4C1D-80C7-31F7EDB3EF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8656A9A5-AD92-45C8-B2B2-AD95C567D8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8976" yWindow="3396" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7296" yWindow="1188" windowWidth="19008" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>火焰哥布林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensingRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMoveDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAutoAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,15 +413,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,13 +452,22 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -458,7 +484,7 @@
         <v>200</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -467,13 +493,22 @@
         <v>20</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -499,13 +534,22 @@
         <v>40</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -516,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -531,9 +575,18 @@
         <v>100</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>200</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>50</v>
       </c>
     </row>

--- a/src/main/resources/excel/monster/monster.xlsx
+++ b/src/main/resources/excel/monster/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8656A9A5-AD92-45C8-B2B2-AD95C567D8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73918EBE-3543-4D38-BFC2-144B40D46E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7296" yWindow="1188" windowWidth="19008" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2724" yWindow="984" windowWidth="19008" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火焰哥布林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensingRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +84,10 @@
   </si>
   <si>
     <t>isAutoAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰哥布林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +416,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,16 +452,16 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>10</v>
